--- a/Performance/performance.xlsx
+++ b/Performance/performance.xlsx
@@ -138,7 +138,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -566,11 +565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381957824"/>
-        <c:axId val="381953904"/>
+        <c:axId val="200279544"/>
+        <c:axId val="200276016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381957824"/>
+        <c:axId val="200279544"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -618,7 +617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -685,12 +683,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381953904"/>
+        <c:crossAx val="200276016"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381953904"/>
+        <c:axId val="200276016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1000"/>
@@ -742,7 +740,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -809,7 +806,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381957824"/>
+        <c:crossAx val="200279544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -823,7 +820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -935,7 +931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1363,11 +1358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381957432"/>
-        <c:axId val="381958216"/>
+        <c:axId val="200281504"/>
+        <c:axId val="200275624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381957432"/>
+        <c:axId val="200281504"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1415,7 +1410,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1482,12 +1476,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381958216"/>
+        <c:crossAx val="200275624"/>
         <c:crossesAt val="-15000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381958216"/>
+        <c:axId val="200275624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-15000"/>
@@ -1539,7 +1533,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1606,7 +1599,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381957432"/>
+        <c:crossAx val="200281504"/>
         <c:crossesAt val="8192"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1620,7 +1613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2155,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381959000"/>
-        <c:axId val="381959392"/>
+        <c:axId val="253946808"/>
+        <c:axId val="253944848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381959000"/>
+        <c:axId val="253946808"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2274,12 +2266,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381959392"/>
+        <c:crossAx val="253944848"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381959392"/>
+        <c:axId val="253944848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.1"/>
@@ -2325,7 +2317,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> compared to std::out</a:t>
+                  <a:t> compared to std::sort</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -2398,7 +2390,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381959000"/>
+        <c:crossAx val="253946808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2956,11 +2948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381954296"/>
-        <c:axId val="381951944"/>
+        <c:axId val="253945632"/>
+        <c:axId val="253943672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381954296"/>
+        <c:axId val="253945632"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3075,12 +3067,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381951944"/>
+        <c:crossAx val="253943672"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381951944"/>
+        <c:axId val="253943672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-5"/>
@@ -3126,7 +3118,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> std::out</a:t>
+                  <a:t> std::sort</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -3199,7 +3191,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381954296"/>
+        <c:crossAx val="253945632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3879,11 +3871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381956648"/>
-        <c:axId val="381955864"/>
+        <c:axId val="253942496"/>
+        <c:axId val="253942104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381956648"/>
+        <c:axId val="253942496"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3998,12 +3990,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381955864"/>
+        <c:crossAx val="253942104"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381955864"/>
+        <c:axId val="253942104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -4123,7 +4115,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381956648"/>
+        <c:crossAx val="253942496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7055,7 +7047,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>166068</xdr:colOff>
+      <xdr:colOff>170550</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>109950</xdr:rowOff>
     </xdr:to>
@@ -7410,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
